--- a/codex/latest/codex.xlsx
+++ b/codex/latest/codex.xlsx
@@ -31,11 +31,12 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) HuBMAP ID of the sample (i.e., block, section or suspension) used to
-perform this assay. For example, for a RNAseq assay, the parent would be the
-suspension, whereas this would be the HuBMAP ID of a section for one of the
-imaging assays. If an assay comes from multiple parent samples then this should
-be a comma separated list. Example: HBM765.TRHD.452</t>
+        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
+section or suspension) used to perform this assay. For example, for a RNAseq
+assay, the parent would be the suspension, whereas, for one of the imaging
+assays, the parent would be the tissue section. If an assay comes from multiple
+parent samples then this should be a comma separated list. Example:
+HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
@@ -241,6 +242,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
   </si>
   <si>
+    <t>MIBI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
@@ -301,12 +308,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
   </si>
   <si>
-    <t>Multiplex Ion Beam Imaging</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -544,12 +545,6 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
-    <t>Bruker Daltonics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023608</t>
-  </si>
-  <si>
     <t>Standard BioTools (Fluidigm)</t>
   </si>
   <si>
@@ -562,6 +557,12 @@
     <t>https://identifiers.org/RRID:SCR_023651</t>
   </si>
   <si>
+    <t>Bruker</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_017365</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -877,6 +878,12 @@
     <t>preparation_instrument_vendor</t>
   </si>
   <si>
+    <t>In-House</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
+  </si>
+  <si>
     <t>Not applicable</t>
   </si>
   <si>
@@ -895,12 +902,6 @@
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>Custom</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
-  </si>
-  <si>
     <t>SunChrom</t>
   </si>
   <si>
@@ -1009,7 +1010,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-16T20:49:29-07:00</t>
+    <t>2023-10-27T18:06:47-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1311,10 +1312,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3">
@@ -2445,18 +2446,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
@@ -2477,18 +2478,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7">

--- a/codex/latest/codex.xlsx
+++ b/codex/latest/codex.xlsx
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="271">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -236,12 +236,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
-    <t>nanoPOTS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
-  </si>
-  <si>
     <t>MIBI</t>
   </si>
   <si>
@@ -344,12 +338,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
-    <t>NanoDESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000203</t>
-  </si>
-  <si>
     <t>GeoMx</t>
   </si>
   <si>
@@ -368,6 +356,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>2D Imaging Mass Cytometry</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
+  </si>
+  <si>
     <t>RNAseq (GeoMx)</t>
   </si>
   <si>
@@ -614,6 +608,12 @@
     <t>https://identifiers.org/RRID:SCR_023611</t>
   </si>
   <si>
+    <t>STELLARIS 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024663</t>
+  </si>
+  <si>
     <t>BZ-X710</t>
   </si>
   <si>
@@ -668,6 +668,12 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
@@ -1010,7 +1016,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-27T18:06:47-07:00</t>
+    <t>2023-11-02T15:44:35-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1156,81 +1162,81 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Y2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="17">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1242,7 +1248,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$36</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1312,106 +1318,106 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B13" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B14" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -1429,18 +1435,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1464,30 +1470,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -1497,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1781,14 +1787,6 @@
       </c>
       <c r="B35" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1806,90 +1804,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1907,12 +1905,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1930,114 +1928,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2047,7 +2045,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2055,290 +2053,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>202</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2356,42 +2370,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2409,26 +2423,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2446,58 +2460,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/codex/latest/codex.xlsx
+++ b/codex/latest/codex.xlsx
@@ -1016,7 +1016,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-02T15:44:35-07:00</t>
+    <t>2023-11-07T20:04:54-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/codex/latest/codex.xlsx
+++ b/codex/latest/codex.xlsx
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="267">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -242,18 +242,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
   </si>
   <si>
-    <t>scATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
@@ -266,22 +266,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
-    <t>scRNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
-  </si>
-  <si>
     <t>Xenium</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>snATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000183</t>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
   </si>
   <si>
     <t>Molecular Cartography</t>
@@ -308,12 +302,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000202</t>
   </si>
   <si>
-    <t>RNAseq (Visium)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000188</t>
-  </si>
-  <si>
     <t>Cell DIVE</t>
   </si>
   <si>
@@ -326,6 +314,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
   </si>
   <si>
+    <t>GeoMx (NGS)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -338,18 +332,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
-    <t>GeoMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
-  </si>
-  <si>
-    <t>RNAseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
-  </si>
-  <si>
     <t>MALDI</t>
   </si>
   <si>
@@ -362,10 +344,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>RNAseq (GeoMx)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
     <t>Histology</t>
@@ -380,10 +362,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
-    <t>ATACseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
+    <t>RNAseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
     <t>MERFISH</t>
@@ -398,12 +380,30 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
   </si>
   <si>
+    <t>nanoSPLITS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
+  </si>
+  <si>
     <t>10X Multiome</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
   </si>
   <si>
+    <t>GeoMx (nCounter)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000301</t>
+  </si>
+  <si>
+    <t>RNAseq (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
+  </si>
+  <si>
     <t>PhenoCycler</t>
   </si>
   <si>
@@ -422,18 +422,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
-    <t>snRNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000184</t>
-  </si>
-  <si>
-    <t>Visium</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000187</t>
-  </si>
-  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -1016,7 +1004,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-07T20:04:54-08:00</t>
+    <t>2023-11-15T17:13:09-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1162,81 +1150,81 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K1" t="s" s="1">
+        <v>214</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="O1" t="s" s="1">
         <v>218</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>219</v>
       </c>
-      <c r="M1" t="s" s="1">
-        <v>220</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>221</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>222</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>223</v>
-      </c>
       <c r="Q1" t="s" s="1">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="R1" t="s" s="1">
+        <v>251</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>252</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>253</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>254</v>
+      </c>
+      <c r="V1" t="s" s="1">
         <v>255</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>256</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>257</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>258</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>259</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>260</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>261</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>262</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="17">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$35</formula1>
+      <formula1>'dataset_type'!$A$1:$A$33</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1310,114 +1298,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B10" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B13" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B14" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -1435,18 +1423,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1470,30 +1458,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" t="s">
         <v>265</v>
-      </c>
-      <c r="C1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" t="s">
         <v>266</v>
-      </c>
-      <c r="C2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D2" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -1503,7 +1491,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1771,22 +1759,6 @@
       </c>
       <c r="B33" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1804,90 +1776,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1905,12 +1877,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1928,114 +1900,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2053,306 +2025,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2370,42 +2342,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2423,26 +2395,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2460,58 +2432,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/codex/latest/codex.xlsx
+++ b/codex/latest/codex.xlsx
@@ -1004,7 +1004,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-15T17:13:09-08:00</t>
+    <t>2023-11-24T09:43:45-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/codex/latest/codex.xlsx
+++ b/codex/latest/codex.xlsx
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="289">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -503,6 +503,18 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>In-House</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
+  </si>
+  <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
@@ -545,6 +557,18 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>Evident Scientific (Olympus)</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024782</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -581,6 +605,12 @@
     <t>https://identifiers.org/RRID:SCR_010233</t>
   </si>
   <si>
+    <t>Motic</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024856</t>
+  </si>
+  <si>
     <t>Ionpath</t>
   </si>
   <si>
@@ -614,6 +644,12 @@
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
     <t>Axio Observer 7</t>
   </si>
   <si>
@@ -632,18 +668,42 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>DM6 B</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024857</t>
+  </si>
+  <si>
     <t>NanoZoomer 2.0-HT</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 2.0</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023773</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024448</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -668,6 +728,12 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>VS200 Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024783</t>
+  </si>
+  <si>
     <t>Axio Observer 5</t>
   </si>
   <si>
@@ -728,6 +794,12 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
     <t>QTRAP 5500</t>
   </si>
   <si>
@@ -872,12 +944,6 @@
     <t>preparation_instrument_vendor</t>
   </si>
   <si>
-    <t>In-House</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
-  </si>
-  <si>
     <t>Not applicable</t>
   </si>
   <si>
@@ -1004,7 +1070,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-24T09:43:45-08:00</t>
+    <t>2024-01-29T14:11:45-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1109,31 +1175,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="16.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="23.45703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="12.28515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="12.66796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="10.8984375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="28.46484375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="27.87109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="28.5625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="47.64453125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="46.48828125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="16.90625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="15.234375" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="29.08203125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="28.48828125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="19.45703125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="18.30078125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="20.875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="19.44140625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" style="23" width="36.0" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" style="24" width="30.91015625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" style="25" width="7.8125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" style="26" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="14.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="5.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="20.234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="10.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="9.40234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="24.5546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="24.0390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="24.63671875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="23.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="41.1015625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="40.1015625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="14.5859375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="8.46484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="13.14453125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="25.0859375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="24.57421875" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="16.78515625" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="15.78515625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="18.0078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="16.76953125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" style="23" width="31.0546875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" style="24" width="26.6640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" style="25" width="6.7421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" style="26" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1159,66 +1225,66 @@
         <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>258</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="5">
         <v>32</v>
       </c>
-      <c r="Y2" t="s">
-        <v>259</v>
+      <c r="Y2" t="s" s="26">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -1233,10 +1299,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$19</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$45</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1250,7 +1316,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
+      <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$7</formula1>
@@ -1297,115 +1363,115 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" t="s">
-        <v>133</v>
+      <c r="A1" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>143</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" t="s">
-        <v>223</v>
+      <c r="A2" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>245</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" t="s">
-        <v>232</v>
+      <c r="A3" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B4" t="s">
-        <v>234</v>
+      <c r="A4" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>256</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" t="s">
-        <v>181</v>
+      <c r="A5" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>205</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" t="s">
-        <v>183</v>
+      <c r="A6" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B7" t="s">
-        <v>236</v>
+      <c r="A7" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>258</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B8" t="s">
-        <v>238</v>
+      <c r="A8" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>260</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B9" t="s">
-        <v>240</v>
+      <c r="A9" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>262</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B10" t="s">
-        <v>242</v>
+      <c r="A10" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>264</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>243</v>
-      </c>
-      <c r="B11" t="s">
-        <v>244</v>
+      <c r="A11" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>266</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>245</v>
-      </c>
-      <c r="B12" t="s">
-        <v>246</v>
+      <c r="A12" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>268</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>247</v>
-      </c>
-      <c r="B13" t="s">
-        <v>248</v>
+      <c r="A13" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>270</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>249</v>
-      </c>
-      <c r="B14" t="s">
-        <v>250</v>
+      <c r="A14" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -1422,19 +1488,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" t="s">
-        <v>205</v>
+      <c r="A1" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>229</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" t="s">
-        <v>213</v>
+      <c r="A2" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -1450,38 +1516,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.9921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="80.78125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.20703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.1484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="69.68359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D1" t="s">
-        <v>265</v>
+      <c r="A1" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>287</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D2" t="s">
-        <v>266</v>
+      <c r="B2" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -1498,266 +1564,266 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>69</v>
       </c>
     </row>
@@ -1775,90 +1841,90 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>74</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>76</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>78</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>82</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>88</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>92</v>
       </c>
     </row>
@@ -1876,12 +1942,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>94</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>95</v>
       </c>
     </row>
@@ -1892,122 +1958,162 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>102</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>104</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>106</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>114</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>118</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2017,314 +2123,370 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" t="s">
-        <v>127</v>
+      <c r="A1" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>137</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" t="s">
-        <v>129</v>
+      <c r="A2" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>139</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" t="s">
-        <v>131</v>
+      <c r="A3" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>141</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" t="s">
-        <v>133</v>
+      <c r="A4" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>143</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" t="s">
-        <v>135</v>
+      <c r="A5" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>145</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" t="s">
-        <v>137</v>
+      <c r="A6" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>147</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" t="s">
-        <v>139</v>
+      <c r="A7" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>149</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" t="s">
-        <v>141</v>
+      <c r="A8" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>151</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" t="s">
-        <v>143</v>
+      <c r="A9" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>153</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" t="s">
-        <v>145</v>
+      <c r="A10" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" t="s">
-        <v>147</v>
+      <c r="A11" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>157</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" t="s">
-        <v>149</v>
+      <c r="A12" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>159</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" t="s">
-        <v>151</v>
+      <c r="A13" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>161</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" t="s">
-        <v>153</v>
+      <c r="A14" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>163</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" t="s">
-        <v>155</v>
+      <c r="A15" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>165</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" t="s">
-        <v>157</v>
+      <c r="A16" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>167</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" t="s">
-        <v>159</v>
+      <c r="A17" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>169</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" t="s">
-        <v>161</v>
+      <c r="A18" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>171</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" t="s">
-        <v>163</v>
+      <c r="A19" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>173</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" t="s">
-        <v>165</v>
+      <c r="A20" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>175</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B21" t="s">
-        <v>167</v>
+      <c r="A21" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>177</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" t="s">
-        <v>169</v>
+      <c r="A22" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>179</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" t="s">
-        <v>171</v>
+      <c r="A23" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>181</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" t="s">
-        <v>173</v>
+      <c r="A24" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>183</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" t="s">
-        <v>175</v>
+      <c r="A25" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>185</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" t="s">
-        <v>177</v>
+      <c r="A26" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>187</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B27" t="s">
-        <v>179</v>
+      <c r="A27" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>189</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28" t="s">
-        <v>181</v>
+      <c r="A28" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>191</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" t="s">
-        <v>183</v>
+      <c r="A29" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>193</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B30" t="s">
-        <v>185</v>
+      <c r="A30" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>195</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" t="s">
-        <v>187</v>
+      <c r="A31" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>197</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" t="s">
-        <v>189</v>
+      <c r="A32" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>199</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B33" t="s">
-        <v>191</v>
+      <c r="A33" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>201</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" t="s">
-        <v>193</v>
+      <c r="A34" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>203</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B35" t="s">
-        <v>195</v>
+      <c r="A35" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>205</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" t="s">
-        <v>197</v>
+      <c r="A36" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>198</v>
-      </c>
-      <c r="B37" t="s">
-        <v>199</v>
+      <c r="A37" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>209</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>200</v>
-      </c>
-      <c r="B38" t="s">
-        <v>201</v>
+      <c r="A38" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2341,43 +2503,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" t="s">
-        <v>205</v>
+      <c r="A1" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>229</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" t="s">
-        <v>207</v>
+      <c r="A2" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>231</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" t="s">
-        <v>209</v>
+      <c r="A3" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" t="s">
-        <v>211</v>
+      <c r="A4" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B5" t="s">
-        <v>213</v>
+      <c r="A5" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2394,27 +2556,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" t="s">
-        <v>207</v>
+      <c r="A1" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>231</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" t="s">
-        <v>209</v>
+      <c r="A2" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" t="s">
-        <v>211</v>
+      <c r="A3" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2431,59 +2593,59 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" t="s">
-        <v>221</v>
+      <c r="A1" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" t="s">
-        <v>114</v>
+      <c r="A2" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>122</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" t="s">
-        <v>223</v>
+      <c r="A3" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>245</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" t="s">
-        <v>225</v>
+      <c r="A4" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" t="s">
-        <v>227</v>
+      <c r="A5" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>249</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" t="s">
-        <v>118</v>
+      <c r="A6" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>126</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B7" t="s">
-        <v>229</v>
+      <c r="A7" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/codex/latest/codex.xlsx
+++ b/codex/latest/codex.xlsx
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="319">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -320,6 +320,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
   </si>
   <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -425,6 +431,12 @@
     <t>analyte_class</t>
   </si>
   <si>
+    <t>DNA + RNA</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -545,6 +557,12 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_000004</t>
+  </si>
+  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -557,6 +575,12 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
     <t>Akoya Biosciences</t>
   </si>
   <si>
@@ -599,6 +623,12 @@
     <t>https://identifiers.org/RRID:SCR_023609</t>
   </si>
   <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
     <t>Illumina</t>
   </si>
   <si>
@@ -638,16 +668,142 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
+    <t>EVOS M7000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025070</t>
+  </si>
+  <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024448</t>
+  </si>
+  <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
+    <t>Q Exactive UHMR</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020571</t>
+  </si>
+  <si>
+    <t>Q Exactive</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020565</t>
+  </si>
+  <si>
+    <t>Zyla 4.2 sCMOS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023610</t>
+  </si>
+  <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
+    <t>QTRAP 5500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020517</t>
+  </si>
+  <si>
+    <t>BZ-X800</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023617</t>
+  </si>
+  <si>
+    <t>NextSeq 500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_014983</t>
+  </si>
+  <si>
+    <t>NanoZoomer S360</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023761</t>
+  </si>
+  <si>
+    <t>Hyperion Imaging System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023195</t>
+  </si>
+  <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
+    <t>NextSeq 550</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016381</t>
+  </si>
+  <si>
+    <t>Digital Spatial Profiler</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021660</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
-    <t>MoticEasyScan One</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024855</t>
+    <t>BZ-X810</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025160</t>
   </si>
   <si>
     <t>Axio Observer 7</t>
@@ -656,52 +812,34 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
-    <t>NovaSeq X</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024569</t>
-  </si>
-  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>PhenoImager Fusion</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023274</t>
+  </si>
+  <si>
     <t>DM6 B</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024857</t>
   </si>
   <si>
-    <t>NanoZoomer 2.0-HT</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021658</t>
-  </si>
-  <si>
     <t>Phenocycler-Fusion 2.0</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023773</t>
   </si>
   <si>
-    <t>Lightsheet 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024448</t>
-  </si>
-  <si>
-    <t>Phenocycler-Fusion 1.0</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
-  </si>
-  <si>
-    <t>DNBSEQ-T7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024847</t>
+    <t>Aperio CS2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025111</t>
   </si>
   <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
@@ -716,18 +854,18 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
-  </si>
-  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>TissueScope LE Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024995</t>
+  </si>
+  <si>
     <t>VS200 Slide Scanner</t>
   </si>
   <si>
@@ -758,12 +896,6 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
-    <t>Q Exactive UHMR</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020571</t>
-  </si>
-  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -776,40 +908,16 @@
     <t>https://identifiers.org/RRID:SCR_016387</t>
   </si>
   <si>
-    <t>Q Exactive</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020565</t>
-  </si>
-  <si>
-    <t>Zyla 4.2 sCMOS</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023610</t>
-  </si>
-  <si>
     <t>HiSeq 4000</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
-    <t>Custom: Multiphoton</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
-  </si>
-  <si>
-    <t>QTRAP 5500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020517</t>
-  </si>
-  <si>
-    <t>BZ-X800</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023617</t>
+    <t>Aperio AT2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021256</t>
   </si>
   <si>
     <t>MIBIscope</t>
@@ -818,18 +926,6 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
-    <t>NextSeq 500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_014983</t>
-  </si>
-  <si>
-    <t>NanoZoomer S360</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023761</t>
-  </si>
-  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -842,36 +938,6 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
-    <t>Hyperion Imaging System</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023195</t>
-  </si>
-  <si>
-    <t>NovaSeq X Plus</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024568</t>
-  </si>
-  <si>
-    <t>NanoZoomer-SQ</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023763</t>
-  </si>
-  <si>
-    <t>NextSeq 550</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016381</t>
-  </si>
-  <si>
-    <t>Digital Spatial Profiler</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021660</t>
-  </si>
-  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -950,6 +1016,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
   </si>
   <si>
+    <t>Roche Diagnostics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025096</t>
+  </si>
+  <si>
     <t>HTX Technologies</t>
   </si>
   <si>
@@ -1013,12 +1085,30 @@
     <t>https://identifiers.org/RRID:SCR_023731</t>
   </si>
   <si>
+    <t>Discovery Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025097</t>
+  </si>
+  <si>
+    <t>ST5020 Multistainer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025021</t>
+  </si>
+  <si>
     <t>Chromium iX</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024536</t>
   </si>
   <si>
+    <t>Chromium Connect</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025146</t>
+  </si>
+  <si>
     <t>M5 Sprayer</t>
   </si>
   <si>
@@ -1070,7 +1160,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-01-29T14:11:45-08:00</t>
+    <t>2024-04-01T14:48:15-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1216,67 +1306,67 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>280</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2">
@@ -1284,25 +1374,25 @@
         <v>32</v>
       </c>
       <c r="Y2" t="s" s="26">
-        <v>281</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="17">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$33</formula1>
+      <formula1>'dataset_type'!$A$1:$A$34</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$11</formula1>
+      <formula1>'analyte_class'!$A$1:$A$12</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$19</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$45</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1319,10 +1409,10 @@
       <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_vendor'!$A$1:$A$7</formula1>
+      <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$14</formula1>
+      <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1356,7 +1446,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1364,114 +1454,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>143</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>245</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>254</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>255</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>256</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>204</v>
+        <v>279</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>205</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>260</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>264</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>266</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>268</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>270</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>272</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -1489,18 +1611,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -1524,16 +1646,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>287</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2">
@@ -1541,13 +1663,13 @@
         <v>32</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>288</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -1557,7 +1679,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1827,6 +1949,14 @@
         <v>69</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1834,7 +1964,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1842,90 +1972,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1943,12 +2081,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1958,7 +2096,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1966,154 +2104,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2123,7 +2285,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2131,362 +2293,410 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>225</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2504,42 +2714,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2557,26 +2767,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2586,7 +2796,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2594,58 +2804,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>245</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>246</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>247</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>125</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>126</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>251</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/codex/latest/codex.xlsx
+++ b/codex/latest/codex.xlsx
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="329">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -272,6 +272,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
     <t>Visium (with probes)</t>
   </si>
   <si>
@@ -368,6 +374,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000384</t>
+  </si>
+  <si>
     <t>RNAseq</t>
   </si>
   <si>
@@ -449,22 +461,52 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
   </si>
   <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
+  </si>
+  <si>
+    <t>Metabolite</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+  </si>
+  <si>
+    <t>Unsaturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
+  </si>
+  <si>
+    <t>Saturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
+  </si>
+  <si>
+    <t>Lipid</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
+  </si>
+  <si>
     <t>Fluorochrome</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_51217</t>
   </si>
   <si>
-    <t>RNA</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
-  </si>
-  <si>
-    <t>Metabolite</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+    <t>Collagen</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C16447</t>
   </si>
   <si>
     <t>DNA</t>
@@ -491,27 +533,15 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
   </si>
   <si>
-    <t>Lipid</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
@@ -560,7 +590,7 @@
     <t>GE Healthcare</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_000004</t>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
   </si>
   <si>
     <t>Sciex</t>
@@ -668,6 +698,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
+  </si>
+  <si>
     <t>MoticEasyScan One</t>
   </si>
   <si>
@@ -1010,12 +1046,6 @@
     <t>preparation_instrument_vendor</t>
   </si>
   <si>
-    <t>Not applicable</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
-  </si>
-  <si>
     <t>Roche Diagnostics</t>
   </si>
   <si>
@@ -1160,7 +1190,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-04-01T14:48:15-07:00</t>
+    <t>2024-08-03T11:41:45-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1306,84 +1336,84 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="s" s="26">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="17">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$34</formula1>
+      <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$12</formula1>
+      <formula1>'analyte_class'!$A$1:$A$15</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1392,7 +1422,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1454,146 +1484,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>266</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -1611,18 +1641,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -1646,30 +1676,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -1679,7 +1709,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1957,6 +1987,22 @@
         <v>71</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1964,7 +2010,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1972,98 +2018,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2081,12 +2151,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2104,178 +2174,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2285,7 +2355,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2293,410 +2363,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>247</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2714,42 +2792,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2767,26 +2845,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2804,74 +2882,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>266</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>267</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/codex/latest/codex.xlsx
+++ b/codex/latest/codex.xlsx
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="335">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -350,6 +350,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
@@ -374,6 +380,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>DART-FISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000396</t>
+  </si>
+  <si>
     <t>Resolve</t>
   </si>
   <si>
@@ -449,18 +461,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
-    <t>Nucleic acid and protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -473,13 +485,19 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
   </si>
   <si>
-    <t>Unsaturated Lipid</t>
+    <t>Unsaturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
   </si>
   <si>
-    <t>Saturated Lipid</t>
+    <t>Lipid + metabolite</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000401</t>
+  </si>
+  <si>
+    <t>Saturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
@@ -515,24 +533,24 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C449</t>
   </si>
   <si>
-    <t>Endogenous fluorophores</t>
+    <t>Peptide</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
+  </si>
+  <si>
+    <t>Polysaccharide</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
+  </si>
+  <si>
+    <t>Endogenous fluorophore</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000131</t>
   </si>
   <si>
-    <t>Peptide</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
-  </si>
-  <si>
-    <t>Polysaccharide</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
@@ -635,6 +653,12 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>10x Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023672</t>
+  </si>
+  <si>
     <t>NanoString</t>
   </si>
   <si>
@@ -1058,12 +1082,6 @@
     <t>https://identifiers.org/RRID:SCR_023734</t>
   </si>
   <si>
-    <t>10x Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023672</t>
-  </si>
-  <si>
     <t>SunChrom</t>
   </si>
   <si>
@@ -1190,7 +1208,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-08-03T11:41:45-07:00</t>
+    <t>2025-01-08T12:42:43-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1336,67 +1354,67 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2">
@@ -1404,22 +1422,22 @@
         <v>34</v>
       </c>
       <c r="Y2" t="s" s="26">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="17">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$15</formula1>
+      <formula1>'analyte_class'!$A$1:$A$16</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
@@ -1484,146 +1502,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -1641,18 +1659,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -1676,16 +1694,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2">
@@ -1693,13 +1711,13 @@
         <v>34</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -1709,7 +1727,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2003,6 +2021,22 @@
         <v>75</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2010,7 +2044,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2018,122 +2052,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2151,12 +2193,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2166,7 +2208,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2174,178 +2216,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2363,418 +2413,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2792,42 +2842,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2845,26 +2895,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2882,74 +2932,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>282</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>283</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/codex/latest/codex.xlsx
+++ b/codex/latest/codex.xlsx
@@ -52,11 +52,11 @@
     <comment ref="C1" authorId="1">
       <text>
         <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurment and preparation. For example for an imaging assay, the protocol might
-include staining of a section through the creation of an OME-TIFF file. In this
-case the protocol would include any image processing steps required to create
-the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
+procurement and preparation. For example for an imaging assay, the protocol
+might begin with staining of a section and finalize with the creation of an
+OME-TIFF file. In this case the protocol would include any image processing
+steps required to create the OME-TIFF file. Example:
+https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
@@ -105,8 +105,8 @@
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acqusition instrument was last serviced by the
-vendor. This provides a metric for assessing drift in data capture.</t>
+        <t>The amount of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture.</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
@@ -157,7 +157,8 @@
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>How long the tissue was on the acquisition instrument.</t>
+        <t>How long did the instrument take to fully complete all imaging rounds on the
+loaded slide.</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
@@ -178,10 +179,10 @@
     <comment ref="V1" authorId="1">
       <text>
         <t>(Required) Number of imaging rounds to capture the tagged biomarkers. For CODEX
-a biomarker imaging round consists of 1. oligo application, 2. fluor
-application, 3. washes. For Cell DIVE a biomarker imaging round consists of 1.
-staining of a biomarker via secondary detection or direct conjugate and 2. dye
-inactivation.</t>
+a biomarker imaging round consists of 1. oligo and fluor application, 2.
+imaging, 3. removal of oligo and fluor along washes. For Cell DIVE a biomarker
+imaging round consists of 1. staining of a biomarker via secondary detection or
+direct conjugate and 2. dye inactivation.</t>
       </text>
     </comment>
     <comment ref="W1" authorId="1">
@@ -210,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="373">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -296,10 +297,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
   </si>
   <si>
-    <t>DBiT</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
   </si>
   <si>
     <t>SIMS</t>
@@ -398,6 +399,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
     <t>MERFISH</t>
   </si>
   <si>
@@ -452,6 +459,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
+    <t>MS Lipidomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -563,40 +582,106 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
+    <t>Cytiva</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023581</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008452</t>
+  </si>
+  <si>
+    <t>Zeiss Microscopy</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023607</t>
+  </si>
+  <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
+  </si>
+  <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>NanoString</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023912</t>
+  </si>
+  <si>
+    <t>Element Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026453</t>
+  </si>
+  <si>
+    <t>Andor</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023609</t>
+  </si>
+  <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_010233</t>
+  </si>
+  <si>
+    <t>Ionpath</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023605</t>
+  </si>
+  <si>
     <t>In-House</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
   </si>
   <si>
-    <t>BGI Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024848</t>
-  </si>
-  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023911</t>
   </si>
   <si>
-    <t>Cytiva</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023581</t>
-  </si>
-  <si>
-    <t>Thermo Fisher Scientific</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008452</t>
-  </si>
-  <si>
-    <t>Zeiss Microscopy</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023607</t>
+    <t>Singular Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026683</t>
+  </si>
+  <si>
+    <t>Vizgen</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026274</t>
   </si>
   <si>
     <t>Standard BioTools (Fluidigm)</t>
@@ -605,12 +690,6 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
-    <t>GE Healthcare</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_025461</t>
-  </si>
-  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -623,18 +702,6 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
-    <t>Leica Microsystems</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008960</t>
-  </si>
-  <si>
-    <t>Akoya Biosciences</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023774</t>
-  </si>
-  <si>
     <t>Evident Scientific (Olympus)</t>
   </si>
   <si>
@@ -659,48 +726,18 @@
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>NanoString</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023912</t>
-  </si>
-  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_017105</t>
   </si>
   <si>
-    <t>Andor</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023609</t>
-  </si>
-  <si>
-    <t>Huron Digital Pathology</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024996</t>
-  </si>
-  <si>
-    <t>Illumina</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_010233</t>
-  </si>
-  <si>
     <t>Motic</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024856</t>
   </si>
   <si>
-    <t>Ionpath</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023605</t>
-  </si>
-  <si>
     <t>acquisition_instrument_model</t>
   </si>
   <si>
@@ -752,6 +789,12 @@
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>timsTOF Ultra 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026541</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
@@ -770,12 +813,30 @@
     <t>https://identifiers.org/RRID:SCR_024847</t>
   </si>
   <si>
+    <t>timsTOF Pro</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026544</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
   </si>
   <si>
+    <t>AVITI</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026452</t>
+  </si>
+  <si>
+    <t>timsTOF Pro 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026545</t>
+  </si>
+  <si>
     <t>Q Exactive UHMR</t>
   </si>
   <si>
@@ -788,12 +849,24 @@
     <t>https://identifiers.org/RRID:SCR_020565</t>
   </si>
   <si>
+    <t>timsTOF SCP</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026542</t>
+  </si>
+  <si>
     <t>Zyla 4.2 sCMOS</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023610</t>
   </si>
   <si>
+    <t>Helios</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_019916</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -806,12 +879,30 @@
     <t>https://identifiers.org/RRID:SCR_020517</t>
   </si>
   <si>
+    <t>timsTOF Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026540</t>
+  </si>
+  <si>
     <t>BZ-X800</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023617</t>
   </si>
   <si>
+    <t>CyTOF 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026551</t>
+  </si>
+  <si>
+    <t>G4X Spatial Sequencer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026684</t>
+  </si>
+  <si>
     <t>NextSeq 500</t>
   </si>
   <si>
@@ -836,6 +927,12 @@
     <t>https://identifiers.org/RRID:SCR_024568</t>
   </si>
   <si>
+    <t>CyTOF XT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026344</t>
+  </si>
+  <si>
     <t>NanoZoomer-SQ</t>
   </si>
   <si>
@@ -878,6 +975,12 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>timsTOF HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026543</t>
+  </si>
+  <si>
     <t>PhenoImager Fusion</t>
   </si>
   <si>
@@ -956,6 +1059,12 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>MERSCOPE</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000404</t>
+  </si>
+  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -998,6 +1107,12 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
+    <t>MERSCOPE Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026273</t>
+  </si>
+  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1208,7 +1323,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-01-08T12:42:43-08:00</t>
+    <t>2025-04-24T10:48:16-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1354,67 +1469,67 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>326</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2">
@@ -1422,13 +1537,13 @@
         <v>34</v>
       </c>
       <c r="Y2" t="s" s="26">
-        <v>327</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="17">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$38</formula1>
+      <formula1>'dataset_type'!$A$1:$A$41</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1437,10 +1552,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1502,146 +1617,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>294</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>296</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>203</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>259</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>298</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>300</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>302</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>304</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>306</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>308</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>310</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>312</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>314</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>316</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>318</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -1659,18 +1774,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -1694,16 +1809,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>333</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2">
@@ -1711,13 +1826,13 @@
         <v>34</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>334</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -1727,7 +1842,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2035,6 +2150,30 @@
       </c>
       <c r="B38" t="s" s="0">
         <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2052,130 +2191,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2193,12 +2332,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +2347,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2216,186 +2355,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>162</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2405,7 +2568,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2413,418 +2576,530 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>267</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2842,42 +3117,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -2895,26 +3170,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2932,74 +3207,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>118</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>287</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>289</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>291</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/codex/latest/codex.xlsx
+++ b/codex/latest/codex.xlsx
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="377">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -951,6 +951,18 @@
     <t>https://identifiers.org/RRID:SCR_021660</t>
   </si>
   <si>
+    <t>timsTOF FleX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026925</t>
+  </si>
+  <si>
+    <t>timsTOF FleX MALDI-2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023615</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
@@ -1020,7 +1032,7 @@
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_023615</t>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000433</t>
   </si>
   <si>
     <t>TissueScope LE Slide Scanner</t>
@@ -1323,7 +1335,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-04-24T10:48:16-07:00</t>
+    <t>2025-05-12T10:14:22-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1481,55 +1493,55 @@
         <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2">
@@ -1537,7 +1549,7 @@
         <v>34</v>
       </c>
       <c r="Y2" t="s" s="26">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -1555,7 +1567,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1617,10 +1629,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
@@ -1633,10 +1645,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4">
@@ -1649,10 +1661,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6">
@@ -1665,98 +1677,98 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -1774,18 +1786,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1809,16 +1821,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2">
@@ -1826,13 +1838,13 @@
         <v>34</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -2568,7 +2580,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3024,26 +3036,26 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>150</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>290</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>291</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60">
@@ -3100,6 +3112,22 @@
       </c>
       <c r="B66" t="s" s="0">
         <v>305</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3117,42 +3145,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3170,26 +3198,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -3239,18 +3267,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7">
@@ -3271,10 +3299,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/codex/latest/codex.xlsx
+++ b/codex/latest/codex.xlsx
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="381">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -276,7 +276,7 @@
     <t>Stereo-seq</t>
   </si>
   <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000434</t>
   </si>
   <si>
     <t>Visium (with probes)</t>
@@ -369,6 +369,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -606,6 +612,12 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
+    <t>Complete Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027007</t>
+  </si>
+  <si>
     <t>GE Healthcare</t>
   </si>
   <si>
@@ -1335,7 +1347,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-05-12T10:14:22-07:00</t>
+    <t>2025-06-04T13:59:58-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1481,67 +1493,67 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2">
@@ -1549,13 +1561,13 @@
         <v>34</v>
       </c>
       <c r="Y2" t="s" s="26">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="17">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$41</formula1>
+      <formula1>'dataset_type'!$A$1:$A$42</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1564,7 +1576,7 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
@@ -1629,146 +1641,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -1786,18 +1798,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -1821,16 +1833,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2">
@@ -1838,13 +1850,13 @@
         <v>34</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -1854,7 +1866,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2186,6 +2198,14 @@
       </c>
       <c r="B41" t="s" s="0">
         <v>85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2203,130 +2223,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2344,12 +2364,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2359,7 +2379,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2367,210 +2387,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2588,546 +2616,546 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3145,42 +3173,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -3198,26 +3226,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3235,74 +3263,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/codex/latest/codex.xlsx
+++ b/codex/latest/codex.xlsx
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="413">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -231,6 +231,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
   </si>
   <si>
+    <t>Olink</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000441</t>
+  </si>
+  <si>
     <t>SNARE-seq2</t>
   </si>
   <si>
@@ -267,6 +273,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
+    <t>FACS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000440</t>
+  </si>
+  <si>
     <t>Xenium</t>
   </si>
   <si>
@@ -276,7 +288,7 @@
     <t>Stereo-seq</t>
   </si>
   <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000434</t>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
   </si>
   <si>
     <t>Visium (with probes)</t>
@@ -303,6 +315,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
   </si>
   <si>
+    <t>Seq-Scope</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
+  </si>
+  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -429,6 +447,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
   </si>
   <si>
+    <t>Pixel-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000449</t>
+  </si>
+  <si>
     <t>10X Multiome</t>
   </si>
   <si>
@@ -447,6 +471,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
   </si>
   <si>
+    <t>4i</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
+  </si>
+  <si>
     <t>PhenoCycler</t>
   </si>
   <si>
@@ -477,6 +507,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
   </si>
   <si>
+    <t>MPLEx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000448</t>
+  </si>
+  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -618,6 +654,12 @@
     <t>https://identifiers.org/RRID:SCR_027007</t>
   </si>
   <si>
+    <t>3DHISTECH</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027042</t>
+  </si>
+  <si>
     <t>GE Healthcare</t>
   </si>
   <si>
@@ -732,12 +774,24 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>Cytek Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027071</t>
+  </si>
+  <si>
     <t>10x Genomics</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
+    <t>Microscopes International</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027094</t>
+  </si>
+  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
@@ -771,6 +825,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Pannoramic MIDI II Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024834</t>
+  </si>
+  <si>
     <t>Not applicable</t>
   </si>
   <si>
@@ -879,6 +939,12 @@
     <t>https://identifiers.org/RRID:SCR_019916</t>
   </si>
   <si>
+    <t>uScopeHXII-20</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027101</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -957,6 +1023,12 @@
     <t>https://identifiers.org/RRID:SCR_016381</t>
   </si>
   <si>
+    <t>Axio Zoom.V16</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027090</t>
+  </si>
+  <si>
     <t>Digital Spatial Profiler</t>
   </si>
   <si>
@@ -993,6 +1065,12 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
+    <t>Cytek Northern Lights</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027072</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -1107,6 +1185,12 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>solariX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027095</t>
+  </si>
+  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -1119,6 +1203,12 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
+    <t>Biomark HD</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_022658</t>
+  </si>
+  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -1143,6 +1233,12 @@
     <t>https://identifiers.org/RRID:SCR_020927</t>
   </si>
   <si>
+    <t>Juno System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027198</t>
+  </si>
+  <si>
     <t>Q Exactive HF</t>
   </si>
   <si>
@@ -1347,7 +1443,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-06-04T13:59:58-07:00</t>
+    <t>2025-07-24T21:14:30-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1493,81 +1589,81 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>366</v>
+        <v>398</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>372</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Y2" t="s" s="26">
-        <v>373</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="17">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$42</formula1>
+      <formula1>'dataset_type'!$A$1:$A$48</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1576,10 +1672,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$27</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$75</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1641,146 +1737,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>255</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>340</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>342</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>303</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>344</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>346</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>348</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>350</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>352</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>353</v>
+        <v>385</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>354</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>356</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>358</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>360</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>362</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>364</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -1798,18 +1894,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>317</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>325</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -1833,30 +1929,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>375</v>
+        <v>407</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>379</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>380</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -1866,7 +1962,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2206,6 +2302,54 @@
       </c>
       <c r="B42" t="s" s="0">
         <v>87</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2223,130 +2367,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2364,12 +2508,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2379,7 +2523,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2387,218 +2531,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>178</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2608,7 +2776,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2616,546 +2784,602 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>193</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>207</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>209</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>211</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>215</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>219</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>223</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>225</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>227</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>233</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>235</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>237</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>245</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>247</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>253</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>255</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>257</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>259</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>261</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>263</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>265</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>267</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>269</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>271</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>273</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>279</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>281</v>
+        <v>299</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>285</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>289</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>291</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>293</v>
+        <v>311</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>295</v>
+        <v>313</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>153</v>
+        <v>314</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>154</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>303</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>307</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>309</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>311</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>313</v>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -3173,42 +3397,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>317</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>319</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>321</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>323</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>325</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -3226,26 +3450,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>319</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>321</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>323</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -3263,74 +3487,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>333</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>335</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>337</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/codex/latest/codex.xlsx
+++ b/codex/latest/codex.xlsx
@@ -31,178 +31,190 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
-section or suspension) used to perform this assay. For example, for a RNAseq
-assay, the parent would be the suspension, whereas, for one of the imaging
-assays, the parent would be the tissue section. If an assay comes from multiple
-parent samples then this should be a comma separated list. Example:
-HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
+        <t>(Required) The unique identifier from HuBMAP or SenNet for the sample (such as a
+block, section, or suspension) used to perform the assay. For instance, in an
+RNAseq assay, the parent sample would be the suspension, while in imaging
+assays, it would be the tissue section. If the assay is derived from multiple
+parent samples, this field should contain a comma-separated list of identifiers.
+Example: HBM386.ZGKG.235, HBM672.MKPK.442</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
       <text>
-        <t>An internal field labs can use it to add whatever ID(s) they want or need for
-dataset validation and tracking. This could be a single ID (e.g.,
-"Visium_9OLC_A4_S1") or a delimited list of IDs (e.g., “9OL; 9OLC.A2;
-Visium_9OLC_A4_S1”). This field will not be accessible to anyone outside of the
-consortium and no effort will be made to check if IDs provided by one data
-provider are also used by another.</t>
+        <t>A locally assigned identifier provided by the data provider for the dataset. It
+is used to reference an external metadata record that may be maintained
+independently, enabling traceability and supporting provenance tracking.
+Example: Visium_9OLC_A4_S1</t>
       </text>
     </comment>
     <comment ref="C1" authorId="1">
       <text>
-        <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurement and preparation. For example for an imaging assay, the protocol
-might begin with staining of a section and finalize with the creation of an
-OME-TIFF file. In this case the protocol would include any image processing
-steps required to create the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
+        <t>(Required) The DOI for the protocols.io page that details the assay or the
+procedures used for sample procurement and preparation. For example, in the case
+of an imaging assay, the protocol may start with tissue section staining and end
+with the generation of an OME-TIFF file. The documented protocol should also
+include any image processing steps involved in producing the final OME-TIFF.
+Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
       <text>
-        <t>(Required) The specific type of dataset being produced.</t>
+        <t>(Required) The specific type of dataset being produced. Example: RNAseq</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1">
       <text>
-        <t>(Required) Analytes are the target molecules being measured with the assay.</t>
+        <t>(Required) The analyte class which is the target molecule that the assay is
+measuring. Example: DNA</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1">
       <text>
-        <t>(Required) Specifies whether or not a specific molecule(s) is/are targeted for
-detection/measurement by the assay ("Yes" or "No"). The CODEX analyte is
-protein.</t>
+        <t>(Required) Indicates whether a specific molecule or set of molecules is targeted
+for detection or measurement by the assay. Example: Yes</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
       <text>
-        <t>(Required) An acquisition instrument is the device that contains the signal
-detection hardware and signal processing software. Assays generate signals such
-as light of various intensities or color or signals representing the molecular
-mass.</t>
+        <t>(Required) The company that manufactures or supplies the acquisition instrument.
+An acquisition instrument is a device equipped with signal detection hardware
+and signal processing software. It captures signals produced by assays, such as
+variations in light intensity or color, or signals corresponding to molecular
+mass. If the instrument was custom-built or developed internally, enter
+"In-House". Example: Illumina</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1">
       <text>
-        <t>(Required) Manufacturers of an acquisition instrument may offer various versions
-(models) of that instrument with different features or sensitivities.
-Differences in features or sensitivities may be relevant to processing or
-interpretation of the data.</t>
+        <t>(Required) The specific model of the acquisition instrument, as manufacturers
+often offer various versions with differing features or sensitivities. These
+differences may be relevant to the processing or interpretation of the data. If
+the instrument was custom-built or developed internally, enter "In-House". If
+the model is unknown, enter "Unknown". Example: HiSeq 4000</t>
       </text>
     </comment>
     <comment ref="I1" authorId="1">
       <text>
-        <t>(Required) How long was the source material (parent) stored, prior to this
-sample being processed.</t>
+        <t>(Required) The length of time the sample was stored prior to processing it. For
+assays performed on tissue sections, this refers to how long the tissue section
+(e.g., slide) was stored before the assay began (e.g., imaging). For assays
+performed on suspensions, such as sequencing, it refers to how long the
+suspension was stored before library construction started. Example: 12</t>
       </text>
     </comment>
     <comment ref="J1" authorId="1">
       <text>
-        <t>(Required) The time duration unit of measurement</t>
+        <t>(Required) The unit of measurement used to specify the source storage duration
+value. Example: hour</t>
       </text>
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acquisition instrument was last serviced or
-calibrated. This provides a metric for assessing drift in data capture.</t>
+        <t>The length of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture. Example:
+10</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
       <text>
-        <t>The time unit of measurement</t>
+        <t>The unit of measurement used to specify the time since acquisition instrument
+calibration value. Example: month</t>
       </text>
     </comment>
     <comment ref="M1" authorId="1">
       <text>
-        <t>(Required) The path to the file with the ORCID IDs for all contributors of this
-dataset (e.g., "extras/contributors.tsv" or "./contributors.tsv"). This is an
-internal metadata field that is just used for ingest.</t>
+        <t>(Required) The name of the file containing the ORCID IDs for all contributors to
+this dataset. Example: ./contributors.csv</t>
       </text>
     </comment>
     <comment ref="N1" authorId="1">
       <text>
-        <t>(Required) The top level directory containing the raw and/or processed data. For
-a single dataset upload this might be "." where as for a data upload containing
-multiple datasets, this would be the directory name for the respective dataset.
-For instance, if the data is within a directory called "TEST001-RK" use syntax
-"/TEST001-RK/" for this field. If there are multiple directory levels, use the
-format "/TEST001-RK/Run1/Pass2" in which "Pass2" is the subdirectory where the
-single dataset's data is stored. This is an internal metadata field that is just
-used for ingest.</t>
+        <t>(Required) The top-level directory containing the raw and/or processed data. For
+a single dataset upload, this might be represented as ".", whereas for a data
+upload containing multiple datasets, this would be the directory name for the
+respective dataset. For example, if the data is within a directory named
+"TEST001-RK", use the syntax "./TEST001-RK" for this field. If there are
+multiple directory levels, use the format "./TEST001-RK/Run1/Pass2", where
+"Pass2" is the subdirectory where the single dataset's data is stored. This is
+an internal metadata field used solely for data ingestion. Example: ./TEST001-RK</t>
       </text>
     </comment>
     <comment ref="O1" authorId="1">
       <text>
-        <t>(Required) This is the location of the antibodies.tsv file relative to the root
-of the top level of the upload directory structure. This path should begin with
-"." and would likely be something like "./extras/antibodies.tsv".</t>
+        <t>(Required) The path to the antibodies.tsv file relative to the root directory of
+the upload structure. This path should start with "." and is typically formatted
+as "./extras/antibodies.tsv". Example: ./extras/antibodies.tsv</t>
       </text>
     </comment>
     <comment ref="P1" authorId="1">
       <text>
-        <t>(Required) The manufacturer of the instrument used to prepare
-(staining/processing) the sample for the assay. If an automatic slide staining
-method was indicated this field should list the manufacturer of the instrument.</t>
+        <t>(Required) The company that manufactures the instrument used to prepare the
+sample (e.g., for staining or other processing steps) prior to the assay. If the
+instrument was custom-built or developed internally, enter "In-House". If no
+sample preparation occurred, enter "Not applicable". Example: 10X Genomics</t>
       </text>
     </comment>
     <comment ref="Q1" authorId="1">
       <text>
-        <t>(Required) Manufacturers of a staining system instrument may offer various
-versions (models) of that instrument with different features. Differences in
-features or sensitivities may be relevant to processing or interpretation of the
-data.</t>
+        <t>(Required) The specific model of the instrument used for sample preparation,
+such as staining. Manufacturers may offer multiple models with varying features
+or sensitivities, which can influence how the sample is processed and how the
+resulting data is interpreted. If no sample preparation occurred, enter "Not
+applicable". Example: Chromium X</t>
       </text>
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>How long did the instrument take to fully complete all imaging rounds on the
-loaded slide.</t>
+        <t>The total run time, which is the duration the instrument takes to fully complete
+all imaging rounds on the loaded slide. Example: 24</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
       <text>
-        <t>The units for the total run time unit field.</t>
+        <t>The unit of measurement for the total run time value. If the total run time is
+not specified, this field may be left blank. Example: hour</t>
       </text>
     </comment>
     <comment ref="T1" authorId="1">
       <text>
-        <t>(Required) Number of antibodies</t>
+        <t>(Required) The number of antibodies used in the assay. If no antibodies were
+utilized, enter 0. Example: 5</t>
       </text>
     </comment>
     <comment ref="U1" authorId="1">
       <text>
-        <t>(Required) Number of fluorescent channels imaged during each cycle.</t>
+        <t>(Required) The number of fluorescent channels that are imaged during each cycle.
+Example: 3</t>
       </text>
     </comment>
     <comment ref="V1" authorId="1">
       <text>
-        <t>(Required) Number of imaging rounds to capture the tagged biomarkers. For CODEX
-a biomarker imaging round consists of 1. oligo and fluor application, 2.
-imaging, 3. removal of oligo and fluor along washes. For Cell DIVE a biomarker
-imaging round consists of 1. staining of a biomarker via secondary detection or
-direct conjugate and 2. dye inactivation.</t>
+        <t>(Required) The number of imaging rounds required to capture the tagged
+biomarkers. For CODEX, a biomarker imaging round includes steps such as (1)
+oligo application, (2) fluor application, and (3) washes. For Cell DIVE, it
+involves (1) the staining of a biomarker via secondary detection or direct
+conjugate, followed by (2) dye inactivation. Example: 3</t>
       </text>
     </comment>
     <comment ref="W1" authorId="1">
       <text>
-        <t>(Required) The total number of acquisitions performed on microscope to collect
-autofluorescence/background or stained signal (e.g., histology).</t>
+        <t>(Required) The total number of imaging rounds performed using a microscope to
+collect either autofluorescence/background or stained signals, such as those
+used in histological analysis. Example: 5</t>
       </text>
     </comment>
     <comment ref="X1" authorId="1">
       <text>
-        <t>A unique ID denoting the slide used. This allows users the ability to determine
-which tissue sections were processed together on the same slide. It is
-recommended that data providers prefix the ID with the center name, to prevent
-values overlapping across centers.</t>
+        <t>The unique identifier assigned to each slide, enabling users to determine which
+tissue sections were processed together on the same slide. It is recommended
+that data providers prefix the ID with the center name to prevent overlapping
+values across different centers. Example: VAN0071-PA-1-1_AF</t>
       </text>
     </comment>
     <comment ref="Y1" authorId="1">
       <text>
-        <t>(Required) The string that serves as the definitive identifier for the metadata
-schema version and is readily interpretable by computers for data validation and
+        <t>(Required) The unique string identifier for the metadata specification version,
+which is easily interpretable by computers for purposes of data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
       </text>
     </comment>
@@ -211,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="420">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -231,48 +243,174 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
   </si>
   <si>
+    <t>SNARE-seq2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
+  </si>
+  <si>
+    <t>COMET</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000458</t>
+  </si>
+  <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
+    <t>DESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
+  </si>
+  <si>
+    <t>Confocal</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+  </si>
+  <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
+  </si>
+  <si>
+    <t>Molecular Cartography</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
+  </si>
+  <si>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
+  </si>
+  <si>
+    <t>Seq-Scope</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
+  </si>
+  <si>
+    <t>CosMx Transcriptomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
+  </si>
+  <si>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
+  </si>
+  <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
+    <t>Visium HD</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000451</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>4i</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
     <t>Olink</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000441</t>
   </si>
   <si>
-    <t>SNARE-seq2</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
-  </si>
-  <si>
     <t>MIBI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
-    <t>Visium (no probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
-  </si>
-  <si>
-    <t>DESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000205</t>
   </si>
   <si>
-    <t>Confocal</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
-  </si>
-  <si>
     <t>FACS</t>
   </si>
   <si>
@@ -285,42 +423,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>Stereo-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
-  </si>
-  <si>
-    <t>Visium (with probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
-  </si>
-  <si>
-    <t>Molecular Cartography</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
-  </si>
-  <si>
-    <t>CosMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
-  </si>
-  <si>
-    <t>DBiT-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
-  </si>
-  <si>
-    <t>Seq-Scope</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -351,16 +453,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
   </si>
   <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+    <t>Pixel-seqV2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000450</t>
   </si>
   <si>
     <t>MALDI</t>
@@ -369,30 +465,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
-    <t>seqFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
-  </si>
-  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>ATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
-  </si>
-  <si>
-    <t>CosMx Proteomics</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -423,18 +501,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
-    <t>Singular Genomics G4X</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
     <t>LC-MS</t>
   </si>
   <si>
@@ -447,18 +513,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
   </si>
   <si>
-    <t>Pixel-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000449</t>
-  </si>
-  <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
     <t>GeoMx (nCounter)</t>
   </si>
   <si>
@@ -471,42 +525,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
   </si>
   <si>
-    <t>4i</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
-  </si>
-  <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
     <t>MS Lipidomics</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
   </si>
   <si>
-    <t>CyTOF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
-  </si>
-  <si>
     <t>MPLEx</t>
   </si>
   <si>
@@ -1161,6 +1185,9 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>https://identifiers.org/RRID:SCR_027323</t>
+  </si>
+  <si>
     <t>MERSCOPE</t>
   </si>
   <si>
@@ -1191,6 +1218,12 @@
     <t>https://identifiers.org/RRID:SCR_027095</t>
   </si>
   <si>
+    <t>Panoramic 150 Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027467</t>
+  </si>
+  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -1443,7 +1476,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-07-24T21:14:30-07:00</t>
+    <t>2025-10-17T14:06:03-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1589,81 +1622,81 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="Y2" t="s" s="26">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="17">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$48</formula1>
+      <formula1>'dataset_type'!$A$1:$A$50</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1675,7 +1708,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$75</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$77</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1737,146 +1770,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>390</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -1894,18 +1927,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -1929,30 +1962,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -1962,7 +1995,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2350,6 +2383,22 @@
       </c>
       <c r="B48" t="s" s="0">
         <v>99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2367,130 +2416,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2508,12 +2557,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2531,242 +2580,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2776,7 +2825,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2784,602 +2833,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>316</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>167</v>
+        <v>325</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>168</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>322</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>323</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>345</v>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3397,42 +3462,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3450,26 +3515,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3487,74 +3552,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/codex/latest/codex.xlsx
+++ b/codex/latest/codex.xlsx
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="424">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -291,6 +291,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
+    <t>Virtual Histology</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000473</t>
+  </si>
+  <si>
     <t>DBiT-seq</t>
   </si>
   <si>
@@ -546,18 +552,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
-    <t>Nucleic acid + protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
+    <t>RNA + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000474</t>
+  </si>
+  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -1371,6 +1377,12 @@
     <t>https://identifiers.org/RRID:SCR_019326</t>
   </si>
   <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
+  </si>
+  <si>
     <t>Chromium X</t>
   </si>
   <si>
@@ -1476,7 +1488,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-17T14:06:03-07:00</t>
+    <t>2025-11-19T14:37:37-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1622,81 +1634,81 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y2" t="s" s="26">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="17">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$50</formula1>
+      <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1725,10 +1737,10 @@
       <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
+      <formula1>'preparation_instrument_vendor'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
+      <formula1>'preparation_instrument_model'!$A$1:$A$19</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1762,7 +1774,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1770,146 +1782,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>262</v>
+        <v>384</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>263</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>339</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>340</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>382</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>383</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -1927,18 +1947,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -1962,30 +1982,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -1995,7 +2015,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2399,6 +2419,14 @@
       </c>
       <c r="B50" t="s" s="0">
         <v>103</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2416,130 +2444,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2557,12 +2585,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2580,242 +2608,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2833,618 +2861,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3462,42 +3490,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3515,26 +3543,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3544,7 +3572,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3552,74 +3580,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>375</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>376</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/codex/latest/codex.xlsx
+++ b/codex/latest/codex.xlsx
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="426">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -552,6 +552,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -1488,7 +1494,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-11-19T14:37:37-08:00</t>
+    <t>2025-11-20T09:38:37-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1637,64 +1643,64 @@
         <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2">
@@ -1702,7 +1708,7 @@
         <v>72</v>
       </c>
       <c r="Y2" t="s" s="26">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -1711,7 +1717,7 @@
       <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$16</formula1>
+      <formula1>'analyte_class'!$A$1:$A$17</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1782,154 +1788,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -1947,18 +1953,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -1982,16 +1988,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2">
@@ -1999,13 +2005,13 @@
         <v>72</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -2436,7 +2442,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2568,6 +2574,14 @@
       </c>
       <c r="B16" t="s" s="0">
         <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2585,12 +2599,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2608,242 +2622,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2861,474 +2875,474 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60">
@@ -3336,143 +3350,143 @@
         <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3490,42 +3504,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3543,26 +3557,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3580,90 +3594,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
